--- a/Tables/Address.xlsx
+++ b/Tables/Address.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F5941-3550-4233-B92D-0640521B9F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603DE745-3E72-4B60-BE99-EA86390AD156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Номер квартиры</t>
   </si>
   <si>
-    <t>Id пациента</t>
+    <t>Пациент</t>
   </si>
 </sst>
 </file>
@@ -399,12 +399,12 @@
   <dimension ref="A1:D751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
